--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406489.638892984</v>
+        <v>420215.997030402</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26316,7 @@
         <v>491565.8032302229</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
         <v>491565.803230223</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21664.32351097476</v>
+        <v>21664.32351097474</v>
       </c>
       <c r="C6" t="n">
-        <v>21664.32351097482</v>
+        <v>21664.32351097474</v>
       </c>
       <c r="D6" t="n">
-        <v>21664.32351097488</v>
+        <v>21664.3235109748</v>
       </c>
       <c r="E6" t="n">
-        <v>-53679.97832823182</v>
+        <v>-53679.97832823187</v>
       </c>
       <c r="F6" t="n">
         <v>79420.02167176819</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420215.997030402</v>
+        <v>336430.5952687772</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21664.32351097474</v>
+        <v>21620.18773229379</v>
       </c>
       <c r="C6" t="n">
-        <v>21664.32351097474</v>
+        <v>21620.18773229356</v>
       </c>
       <c r="D6" t="n">
-        <v>21664.3235109748</v>
+        <v>21620.18773229379</v>
       </c>
       <c r="E6" t="n">
-        <v>-53679.97832823187</v>
+        <v>-68489.99516734578</v>
       </c>
       <c r="F6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="G6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="H6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="I6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="J6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="K6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="L6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="M6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="N6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="O6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
       <c r="P6" t="n">
-        <v>79420.02167176819</v>
+        <v>64610.00483265429</v>
       </c>
     </row>
   </sheetData>
